--- a/datamining/final_data/sum1960_nltk.xlsx
+++ b/datamining/final_data/sum1960_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY2"/>
+  <dimension ref="A1:DG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,620 +457,530 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>research</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>years</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>555pp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>555pp</t>
+          <t>book</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>co.</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>educating</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>co.</t>
+          <t>french</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>educating</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>french</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>holt</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>joseph</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>holt</t>
+          <t>l.</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>joseph</t>
+          <t>new</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>l.</t>
+          <t>readings</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>review</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>readings</t>
+          <t>york</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>nonconformity</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>productive</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>york</t>
+          <t>study</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>nonconformity</t>
+          <t>physical-education</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>productive</t>
+          <t>student</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>acceptance</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>freedom</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>physical-education</t>
+          <t>development</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>human</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>acceptance</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>talents</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>freedom</t>
+          <t>utilization</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>pauls</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>talents</t>
+          <t>program</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>utilization</t>
+          <t>project</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>school</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>special-education</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>st</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>pauls</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>special-education</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>st</t>
+          <t>special</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>training</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>climate</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>eminence</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>families</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>procuring</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>directors</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>climate</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>eminence</t>
+          <t>role</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>supervisors</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>families</t>
+          <t>varying</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>carolina</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>procuring</t>
+          <t>children</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>directors</t>
+          <t>commission</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>education</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>exceptionally</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>supervisors</t>
+          <t>north</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>varying</t>
+          <t>public</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>carolina</t>
+          <t>overview</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>state</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>commission</t>
+          <t>regional</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>southern</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>exceptionally</t>
+          <t>read</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>north</t>
+          <t>want</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>page</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>overview</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>analyze</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>lets</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>southern</t>
+          <t>social-adjustment</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>al</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>baldwin</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>bronfenbrenner</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>dc</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>fl</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>mcclelland</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>society</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>strodtbeck</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>analyze</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>lets</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>social-adjustment</t>
+          <t>wilson</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>al</t>
+          <t>child</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>baldwin</t>
+          <t>teach</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>bronfenbrenner</t>
+          <t>''</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>``</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>fl</t>
+          <t>bulletin</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>mcclelland</t>
+          <t>extracts</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>society</t>
+          <t>naval</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>strodtbeck</t>
+          <t>navy</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>pacific</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>south</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>studying</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>judge</t>
+          <t>wings</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>cues</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>own</t>
+          <t>successful</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>wilson</t>
+          <t>group</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>mh</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>mid-life</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>teach</t>
+          <t>oden</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>''</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>``</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>bulletin</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>extracts</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>naval</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>navy</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>pacific</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>south</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>studying</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>wings</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>cues</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>group</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>mh</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>mid-life</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>oden</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>terman</t>
         </is>
@@ -1084,385 +994,331 @@
         <v>1960</v>
       </c>
       <c r="C2" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="D2" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="F2" t="n">
-        <v>1.63</v>
+        <v>0.47</v>
       </c>
       <c r="G2" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="H2" t="n">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
       <c r="I2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="J2" t="n">
-        <v>0.26</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.79</v>
+        <v>0.27</v>
       </c>
       <c r="L2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.8999999999999999</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.26</v>
-      </c>
       <c r="V2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="W2" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="X2" t="n">
-        <v>1.38</v>
+        <v>0.67</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.26</v>
+        <v>1.35</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.2</v>
+        <v>0.68</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.31</v>
+        <v>0.68</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="AF2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BP2" t="n">
         <v>0.62</v>
       </c>
-      <c r="AG2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="BQ2" t="n">
         <v>0.62</v>
       </c>
-      <c r="AI2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="BE2" t="n">
+      <c r="BR2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="DB2" t="n">
         <v>0.38</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="DC2" t="n">
         <v>0.38</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="DD2" t="n">
         <v>0.38</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="DE2" t="n">
         <v>0.38</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="DF2" t="n">
         <v>0.38</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="DG2" t="n">
         <v>0.38</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.36</v>
       </c>
     </row>
   </sheetData>
